--- a/bin/sheets/main_db/teams/ENG/PlayerPerformance_4787.xlsx
+++ b/bin/sheets/main_db/teams/ENG/PlayerPerformance_4787.xlsx
@@ -7,8 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,6 +428,69 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>NAME</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_HAND</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>BOWL_STYLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4787</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Samuel Matthew Curran</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Left Handed</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Left Arm Medium Fast</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -452,7 +517,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -504,7 +569,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4170</t>
+          <t>4170</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -556,7 +621,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4215</t>
+          <t>4215</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -608,7 +673,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4401</t>
+          <t>4401</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -648,7 +713,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr">
         <is>
           <t>07/02/2020</t>
@@ -656,7 +720,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4405</t>
+          <t>4405</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -708,7 +772,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4430</t>
+          <t>4430</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -760,7 +824,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4454</t>
+          <t>4454</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -800,7 +864,6 @@
           <t>7</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr">
         <is>
           <t>26/03/2021</t>
@@ -808,7 +871,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4456</t>
+          <t>4456</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -860,7 +923,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4457</t>
+          <t>4457</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -912,7 +975,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4469</t>
+          <t>4469</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -952,7 +1015,6 @@
           <t>10</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr">
         <is>
           <t>01/07/2021</t>
@@ -960,7 +1022,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4470</t>
+          <t>4470</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1000,7 +1062,6 @@
           <t>11</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr">
         <is>
           <t>04/07/2021</t>
@@ -1008,7 +1069,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4471</t>
+          <t>4471</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1048,7 +1109,6 @@
           <t>12</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr">
         <is>
           <t>17/06/2022</t>
@@ -1056,7 +1116,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4598</t>
+          <t>4598</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1096,7 +1156,6 @@
           <t>13</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr">
         <is>
           <t>22/06/2022</t>
@@ -1104,7 +1163,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4602</t>
+          <t>4602</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1156,7 +1215,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4619</t>
+          <t>4619</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1208,7 +1267,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4620</t>
+          <t>4620</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1248,7 +1307,6 @@
           <t>16</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr">
         <is>
           <t>24/07/2022</t>
@@ -1256,7 +1314,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4622</t>
+          <t>4622</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1308,7 +1366,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4663</t>
+          <t>4663</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1360,7 +1418,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4666</t>
+          <t>4666</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1412,7 +1470,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4698</t>
+          <t>4698</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1464,7 +1522,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4699</t>
+          <t>4699</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1516,7 +1574,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4700</t>
+          <t>4700</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1568,7 +1626,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4713</t>
+          <t>4713</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1620,7 +1678,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4717</t>
+          <t>4717</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1659,7 +1717,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1681,7 +1739,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -1718,7 +1776,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4170</t>
+          <t>4170</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -1755,7 +1813,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4215</t>
+          <t>4215</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -1792,7 +1850,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4401</t>
+          <t>4401</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -1829,7 +1887,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4405</t>
+          <t>4405</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -1866,7 +1924,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4430</t>
+          <t>4430</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1903,7 +1961,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4454</t>
+          <t>4454</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1940,7 +1998,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4456</t>
+          <t>4456</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1977,7 +2035,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4457</t>
+          <t>4457</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -2014,7 +2072,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4469</t>
+          <t>4469</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -2051,7 +2109,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4470</t>
+          <t>4470</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -2088,7 +2146,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4471</t>
+          <t>4471</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -2125,7 +2183,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4598</t>
+          <t>4598</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -2162,7 +2220,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4602</t>
+          <t>4602</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -2199,7 +2257,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4619</t>
+          <t>4619</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -2236,7 +2294,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4620</t>
+          <t>4620</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -2273,7 +2331,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4622</t>
+          <t>4622</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -2310,7 +2368,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4663</t>
+          <t>4663</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -2347,7 +2405,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4666</t>
+          <t>4666</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -2384,7 +2442,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4698</t>
+          <t>4698</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -2421,7 +2479,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4699</t>
+          <t>4699</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -2458,7 +2516,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4700</t>
+          <t>4700</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -2495,7 +2553,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4713</t>
+          <t>4713</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -2532,7 +2590,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4717</t>
+          <t>4717</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -2558,6 +2616,521 @@
       <c r="G24" t="inlineStr">
         <is>
           <t>2/51</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_POSITION</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_4</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_6</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_RUNS_OF_TOTAL</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>MAN_OF_MATCH</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4405</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4430</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>8</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0.43%</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4454</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>8</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>4.78%</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4456</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4457</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>8</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>29.50%</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4469</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>7</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>4.76%</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4470</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>7</v>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4471</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4598</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4602</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>7</v>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4619</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4620</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>8</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>17.41%</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4622</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4663</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4666</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4698</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>7</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>6.27%</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4699</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>8</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>8.19%</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4700</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>7</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>3.18%</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4713</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>8</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>10.12%</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4717</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>5</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>11.73%</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
         </is>
       </c>
     </row>

--- a/bin/sheets/main_db/teams/ENG/PlayerPerformance_4787.xlsx
+++ b/bin/sheets/main_db/teams/ENG/PlayerPerformance_4787.xlsx
@@ -11,6 +11,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2676,15 +2677,470 @@
           <t>4405</t>
         </is>
       </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4430</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>8</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0.43%</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4454</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>8</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>4.78%</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4456</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4457</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>8</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>29.50%</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4469</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>7</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>4.76%</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4470</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>7</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4471</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4598</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4602</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>7</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4619</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4620</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>8</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>17.41%</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4622</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4663</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4666</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4698</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>7</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>6.27%</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4699</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>8</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>8.19%</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4700</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>7</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>3.18%</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4713</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>8</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>10.12%</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4717</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>5</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>11.73%</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>MAIDEN_OVERS</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_WICKETS_OF_ALL</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4405</t>
+        </is>
+      </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2692,27 +3148,14 @@
           <t>4430</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>8</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0.43%</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>30.00%</t>
         </is>
       </c>
     </row>
@@ -2722,29 +3165,12 @@
           <t>4454</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>8</v>
-      </c>
-      <c r="C4" t="inlineStr">
+      <c r="B4" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>4.78%</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="C4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -2754,13 +3180,6 @@
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2768,27 +3187,14 @@
           <t>4457</t>
         </is>
       </c>
-      <c r="B6" t="n">
-        <v>8</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>29.50%</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>YES</t>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
@@ -2798,29 +3204,12 @@
           <t>4469</t>
         </is>
       </c>
-      <c r="B7" t="n">
-        <v>7</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
+      <c r="B7" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>4.76%</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="C7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2828,15 +3217,14 @@
           <t>4470</t>
         </is>
       </c>
-      <c r="B8" t="n">
-        <v>7</v>
-      </c>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>YES</t>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>50.00%</t>
         </is>
       </c>
     </row>
@@ -2848,13 +3236,6 @@
       </c>
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2864,13 +3245,6 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2878,17 +3252,12 @@
           <t>4602</t>
         </is>
       </c>
-      <c r="B11" t="n">
-        <v>7</v>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2898,13 +3267,6 @@
       </c>
       <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2912,27 +3274,14 @@
           <t>4620</t>
         </is>
       </c>
-      <c r="B13" t="n">
-        <v>8</v>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>17.41%</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>YES</t>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
@@ -2944,13 +3293,6 @@
       </c>
       <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2960,13 +3302,6 @@
       </c>
       <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2976,13 +3311,6 @@
       </c>
       <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2990,27 +3318,14 @@
           <t>4698</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>7</v>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>6.27%</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>30.00%</t>
         </is>
       </c>
     </row>
@@ -3020,27 +3335,14 @@
           <t>4699</t>
         </is>
       </c>
-      <c r="B18" t="n">
-        <v>8</v>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>8.19%</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
@@ -3050,29 +3352,12 @@
           <t>4700</t>
         </is>
       </c>
-      <c r="B19" t="n">
-        <v>7</v>
-      </c>
-      <c r="C19" t="inlineStr">
+      <c r="B19" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>3.18%</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="C19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -3080,27 +3365,14 @@
           <t>4713</t>
         </is>
       </c>
-      <c r="B20" t="n">
-        <v>8</v>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>10.12%</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>40.00%</t>
         </is>
       </c>
     </row>
@@ -3110,27 +3382,14 @@
           <t>4717</t>
         </is>
       </c>
-      <c r="B21" t="n">
-        <v>5</v>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>11.73%</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>20.00%</t>
         </is>
       </c>
     </row>

--- a/bin/sheets/main_db/teams/ENG/PlayerPerformance_4787.xlsx
+++ b/bin/sheets/main_db/teams/ENG/PlayerPerformance_4787.xlsx
@@ -1,17 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -726,7 +725,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -1075,7 +1074,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1320,7 +1319,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -2677,6 +2676,10 @@
           <t>4405</t>
         </is>
       </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
           <t>NO</t>
@@ -2749,6 +2752,10 @@
           <t>4456</t>
         </is>
       </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr">
         <is>
           <t>NO</t>
@@ -2824,6 +2831,9 @@
       <c r="B8" t="n">
         <v>7</v>
       </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr">
         <is>
           <t>YES</t>
@@ -2836,6 +2846,10 @@
           <t>4471</t>
         </is>
       </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr">
         <is>
           <t>NO</t>
@@ -2848,6 +2862,10 @@
           <t>4598</t>
         </is>
       </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
         <is>
           <t>NO</t>
@@ -2863,6 +2881,9 @@
       <c r="B11" t="n">
         <v>7</v>
       </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
           <t>NO</t>
@@ -2875,6 +2896,10 @@
           <t>4619</t>
         </is>
       </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr">
         <is>
           <t>NO</t>
@@ -2917,6 +2942,10 @@
           <t>4622</t>
         </is>
       </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr">
         <is>
           <t>NO</t>
@@ -2929,6 +2958,10 @@
           <t>4663</t>
         </is>
       </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr">
         <is>
           <t>NO</t>
@@ -2941,6 +2974,10 @@
           <t>4666</t>
         </is>
       </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr">
         <is>
           <t>NO</t>
@@ -3094,302 +3131,6 @@
       <c r="F21" t="inlineStr">
         <is>
           <t>NO</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>MAIDEN_OVERS</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_WICKETS_OF_ALL</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>4405</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>4430</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>30.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>4454</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>4456</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>4457</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>4469</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>4470</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>50.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>4471</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>4598</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>4602</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>4619</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>4620</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>4622</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>4663</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>4666</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>4698</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>30.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4699</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4700</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4713</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>40.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4717</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>20.00%</t>
         </is>
       </c>
     </row>

--- a/bin/sheets/main_db/teams/ENG/PlayerPerformance_4787.xlsx
+++ b/bin/sheets/main_db/teams/ENG/PlayerPerformance_4787.xlsx
@@ -10,7 +10,6 @@
     <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -713,6 +712,7 @@
           <t>4</t>
         </is>
       </c>
+      <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr">
         <is>
           <t>07/02/2020</t>
@@ -864,6 +864,7 @@
           <t>7</t>
         </is>
       </c>
+      <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr">
         <is>
           <t>26/03/2021</t>
@@ -1015,6 +1016,7 @@
           <t>10</t>
         </is>
       </c>
+      <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr">
         <is>
           <t>01/07/2021</t>
@@ -1062,6 +1064,7 @@
           <t>11</t>
         </is>
       </c>
+      <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr">
         <is>
           <t>04/07/2021</t>
@@ -1109,6 +1112,7 @@
           <t>12</t>
         </is>
       </c>
+      <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr">
         <is>
           <t>17/06/2022</t>
@@ -1156,6 +1160,7 @@
           <t>13</t>
         </is>
       </c>
+      <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr">
         <is>
           <t>22/06/2022</t>
@@ -1307,6 +1312,7 @@
           <t>16</t>
         </is>
       </c>
+      <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr">
         <is>
           <t>24/07/2022</t>
@@ -2622,519 +2628,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>BATTING_POSITION</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_4</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_6</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_RUNS_OF_TOTAL</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>MAN_OF_MATCH</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>4405</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>4430</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>8</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0.43%</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>4454</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>8</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>4.78%</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>4456</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>4457</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>8</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>29.50%</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>4469</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>7</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>4.76%</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>4470</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>7</v>
-      </c>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>4471</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>4598</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>4602</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>7</v>
-      </c>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>4619</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>4620</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>8</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>17.41%</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>4622</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>4663</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>4666</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>4698</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>7</v>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>6.27%</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4699</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>8</v>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>8.19%</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4700</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>7</v>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>3.18%</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4713</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>8</v>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>10.12%</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4717</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>5</v>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>11.73%</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>